--- a/script/data2.xlsx
+++ b/script/data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\autoLogin\Pay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\reactprac\Payment-Automation\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B5B17-0B6E-4871-B9F7-8104A0837776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CA589-B2D2-48BB-AB51-0A30C8C59A8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A07538A9-3364-4AA4-9C0D-6F160216C1B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Card Alias</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>4205-8060-0612-5012</t>
+  </si>
+  <si>
+    <t>Inctive</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D822644C-0FF4-4C02-8312-45F50BC3254F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +509,29 @@
         <v>982802</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>982802</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
